--- a/Data/NE Test/DPV Analysis/Analysis Files/APBA 20 Seg 100 uM DA SER - 0 min.xlsx
+++ b/Data/NE Test/DPV Analysis/Analysis Files/APBA 20 Seg 100 uM DA SER - 0 min.xlsx
@@ -480,10 +480,10 @@
         <v>0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>62.93047619047627</v>
+        <v>62.93047619047623</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>62.93047619047627</v>
+        <v>62.93047619047623</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>0.068</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.3031428571428449</v>
+        <v>0.3031428571428521</v>
       </c>
     </row>
     <row r="3">
@@ -501,10 +501,10 @@
         <v>0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>62.31976190476197</v>
+        <v>62.31976190476193</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>62.31976190476197</v>
+        <v>62.31976190476193</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -514,7 +514,7 @@
         <v>0.188</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.1096240601503808</v>
+        <v>0.1096240601503737</v>
       </c>
     </row>
     <row r="4">
@@ -522,10 +522,10 @@
         <v>0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>61.75476190476197</v>
+        <v>61.75476190476194</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>61.75476190476197</v>
+        <v>61.75476190476194</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0.356</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.156442048517533</v>
+        <v>5.156442048517519</v>
       </c>
     </row>
     <row r="5">
@@ -560,10 +560,10 @@
         <v>0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>60.75952380952384</v>
+        <v>60.75952380952385</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>60.75952380952384</v>
+        <v>60.75952380952385</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -580,10 +580,10 @@
         <v>60.32476190476194</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>60.32476190476195</v>
+        <v>60.32476190476194</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-7.105427357601002e-15</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -594,13 +594,13 @@
         <v>0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>59.90333333333337</v>
+        <v>59.90333333333338</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>59.90304761904766</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.0002857142857095596</v>
+        <v>0.000285714285716665</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -634,7 +634,7 @@
         <v>59.05961904761909</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.05371428571427828</v>
+        <v>0.05371428571428538</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -648,10 +648,10 @@
         <v>58.73047619047623</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>58.63790476190481</v>
+        <v>58.6379047619048</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.09257142857142497</v>
+        <v>0.09257142857143208</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -685,7 +685,7 @@
         <v>57.79447619047623</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1864761904761849</v>
+        <v>0.186476190476192</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -696,13 +696,13 @@
         <v>0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>57.58761904761908</v>
+        <v>57.58761904761909</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>57.37276190476195</v>
+        <v>57.37276190476194</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2148571428571273</v>
+        <v>0.2148571428571415</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -719,7 +719,7 @@
         <v>56.95104761904766</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2499047619047516</v>
+        <v>0.2499047619047587</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -736,7 +736,7 @@
         <v>56.52933333333338</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2754285714285558</v>
+        <v>0.2754285714285629</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -750,10 +750,10 @@
         <v>56.40000000000003</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>56.1076190476191</v>
+        <v>56.10761904761909</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.2923809523809382</v>
+        <v>0.2923809523809453</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -767,10 +767,10 @@
         <v>55.98904761904765</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>55.68590476190481</v>
+        <v>55.6859047619048</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.3031428571428449</v>
+        <v>0.3031428571428521</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -784,10 +784,10 @@
         <v>55.56285714285718</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>55.26419047619052</v>
+        <v>55.26419047619051</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.2986666666666622</v>
+        <v>0.2986666666666693</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -801,7 +801,7 @@
         <v>55.13095238095242</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>54.84247619047624</v>
+        <v>54.84247619047623</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0.2884761904761817</v>
@@ -821,7 +821,7 @@
         <v>54.42076190476195</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.2739999999999867</v>
+        <v>0.2739999999999938</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -832,13 +832,13 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>54.24952380952384</v>
+        <v>54.24952380952385</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>53.99904761904767</v>
+        <v>53.99904761904766</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.2504761904761708</v>
+        <v>0.2504761904761921</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -849,13 +849,13 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>53.80047619047622</v>
+        <v>53.80047619047623</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>53.57733333333339</v>
+        <v>53.57733333333337</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.2231428571428324</v>
+        <v>0.2231428571428609</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -866,13 +866,13 @@
         <v>0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>53.35047619047622</v>
+        <v>53.35047619047623</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>53.1556190476191</v>
+        <v>53.15561904761908</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1948571428571242</v>
+        <v>0.1948571428571455</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -886,7 +886,7 @@
         <v>52.8966666666667</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>52.73390476190481</v>
+        <v>52.7339047619048</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>0.1627619047618936</v>
@@ -906,7 +906,7 @@
         <v>52.31219047619052</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.1311428571428479</v>
+        <v>0.131142857142855</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -917,13 +917,13 @@
         <v>0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>51.99047619047623</v>
+        <v>51.99047619047622</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>51.89047619047624</v>
+        <v>51.89047619047623</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.09999999999998721</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -934,13 +934,13 @@
         <v>0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>51.53809523809527</v>
+        <v>51.53809523809528</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>51.46876190476195</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.06933333333331859</v>
+        <v>0.0693333333333328</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -954,10 +954,10 @@
         <v>51.08761904761909</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>51.04704761904767</v>
+        <v>51.04704761904766</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.04057142857141827</v>
+        <v>0.04057142857142537</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -971,10 +971,10 @@
         <v>50.64000000000003</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>50.62533333333339</v>
+        <v>50.62533333333337</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.01466666666664196</v>
+        <v>0.01466666666665617</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -985,13 +985,13 @@
         <v>0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>50.20809523809528</v>
+        <v>50.20809523809527</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>50.2036190476191</v>
+        <v>50.20361904761909</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.004476190476175645</v>
+        <v>0.004476190476182751</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1005,10 +1005,10 @@
         <v>49.7819047619048</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>49.78190476190481</v>
+        <v>49.7819047619048</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1087,10 +1087,10 @@
         <v>0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>47.77333333333335</v>
+        <v>47.77333333333336</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>47.77333333333335</v>
+        <v>47.77333333333336</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0</v>
@@ -1121,13 +1121,13 @@
         <v>0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>47.03238095238098</v>
+        <v>47.03238095238099</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>47.03238095238096</v>
+        <v>47.03238095238099</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1138,13 +1138,13 @@
         <v>0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>46.67761904761907</v>
+        <v>46.67761904761908</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>46.67401002506266</v>
+        <v>46.6740100250627</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.003609022556410935</v>
+        <v>0.003609022556382513</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1158,10 +1158,10 @@
         <v>46.32714285714289</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>46.31563909774437</v>
+        <v>46.31563909774439</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.011503759398515</v>
+        <v>0.01150375939849368</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1175,10 +1175,10 @@
         <v>45.98476190476192</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45.95726817042608</v>
+        <v>45.9572681704261</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.02749373433584879</v>
+        <v>0.02749373433582036</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1192,10 +1192,10 @@
         <v>45.6461904761905</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45.59889724310779</v>
+        <v>45.59889724310781</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.04729323308271205</v>
+        <v>0.04729323308269073</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1209,10 +1209,10 @@
         <v>45.30523809523812</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45.2405263157895</v>
+        <v>45.24052631578951</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0.06471177944862205</v>
+        <v>0.06471177944860784</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1226,10 +1226,10 @@
         <v>44.9666666666667</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>44.8821553884712</v>
+        <v>44.88215538847122</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0.08451127819549953</v>
+        <v>0.08451127819547821</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1240,13 +1240,13 @@
         <v>0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44.62238095238098</v>
+        <v>44.62238095238099</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>44.5237844611529</v>
+        <v>44.52378446115292</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.09859649122807923</v>
+        <v>0.09859649122807213</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1260,10 +1260,10 @@
         <v>44.27238095238098</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>44.16541353383461</v>
+        <v>44.16541353383462</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.1069674185463754</v>
+        <v>0.1069674185463612</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1277,10 +1277,10 @@
         <v>43.9166666666667</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>43.80704260651632</v>
+        <v>43.80704260651633</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.1096240601503808</v>
+        <v>0.1096240601503737</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1294,10 +1294,10 @@
         <v>43.55714285714289</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>43.44867167919802</v>
+        <v>43.44867167919803</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0.1084711779448639</v>
+        <v>0.1084711779448568</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1308,13 +1308,13 @@
         <v>0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43.19619047619051</v>
+        <v>43.1961904761905</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>43.09030075187972</v>
+        <v>43.09030075187974</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0.105889724310785</v>
+        <v>0.1058897243107637</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1342,13 +1342,13 @@
         <v>0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>42.46333333333335</v>
+        <v>42.46333333333336</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>42.37355889724314</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0.08977443609020952</v>
+        <v>0.08977443609021662</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1359,7 +1359,7 @@
         <v>0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>42.09000000000002</v>
+        <v>42.09000000000003</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>42.01518796992485</v>
@@ -1393,13 +1393,13 @@
         <v>0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>41.33285714285716</v>
+        <v>41.33285714285717</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>41.29844611528826</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>0.03441102756890757</v>
+        <v>0.03441102756891468</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1413,10 +1413,10 @@
         <v>40.95761904761908</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>40.94007518796997</v>
+        <v>40.94007518796996</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0.01754385964910909</v>
+        <v>0.0175438596491162</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1433,7 +1433,7 @@
         <v>40.58170426065166</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.005438596491231351</v>
+        <v>0.005438596491224246</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1447,10 +1447,10 @@
         <v>40.22333333333336</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>40.22333333333337</v>
+        <v>40.22333333333336</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-7.105427357601002e-15</v>
+        <v>0</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1478,10 +1478,10 @@
         <v>0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>39.5314285714286</v>
+        <v>39.53142857142861</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>39.5314285714286</v>
+        <v>39.53142857142861</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>38.32333333333336</v>
+        <v>38.32333333333337</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>38.32333333333336</v>
+        <v>38.32333333333337</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>37.29904761904764</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>37.29904761904763</v>
+        <v>37.29904761904764</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>0</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1668,10 +1668,10 @@
         <v>37.25428571428574</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>37.21084456424081</v>
+        <v>37.21084456424082</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.04344115004493432</v>
+        <v>0.04344115004492721</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1685,10 +1685,10 @@
         <v>37.25095238095241</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>37.12264150943398</v>
+        <v>37.12264150943399</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.1283108715184298</v>
+        <v>0.1283108715184156</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1702,10 +1702,10 @@
         <v>37.29380952380954</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>37.03443845462715</v>
+        <v>37.03443845462716</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.2593710691823929</v>
+        <v>0.2593710691823858</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1719,10 +1719,10 @@
         <v>37.38571428571431</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>36.94623539982032</v>
+        <v>36.94623539982033</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0.4394788858939833</v>
+        <v>0.4394788858939762</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1736,10 +1736,10 @@
         <v>37.52333333333335</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>36.85803234501349</v>
+        <v>36.8580323450135</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.6653009883198635</v>
+        <v>0.6653009883198564</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1756,7 +1756,7 @@
         <v>36.76982929020667</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.9368373764600264</v>
+        <v>0.9368373764600193</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1770,10 +1770,10 @@
         <v>37.92952380952384</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>36.68162623539984</v>
+        <v>36.68162623539985</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>1.247897574123996</v>
+        <v>1.247897574123989</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1790,7 +1790,7 @@
         <v>36.59342318059301</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>1.596100628930827</v>
+        <v>1.59610062893082</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1804,10 +1804,10 @@
         <v>38.48000000000003</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>36.50522012578618</v>
+        <v>36.50522012578619</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>1.974779874213851</v>
+        <v>1.974779874213844</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1824,7 +1824,7 @@
         <v>36.41701707097936</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>2.375840071877811</v>
+        <v>2.375840071877818</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1838,10 +1838,10 @@
         <v>39.11761904761907</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>36.32881401617252</v>
+        <v>36.32881401617253</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>2.78880503144655</v>
+        <v>2.788805031446543</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1858,7 +1858,7 @@
         <v>36.2406109613657</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>3.20510332434862</v>
+        <v>3.205103324348613</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1872,10 +1872,10 @@
         <v>39.76190476190479</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>36.15240790655886</v>
+        <v>36.15240790655887</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>3.609496855345924</v>
+        <v>3.609496855345917</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1889,10 +1889,10 @@
         <v>40.05809523809526</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>36.06420485175204</v>
+        <v>36.06420485175205</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>3.993890386343224</v>
+        <v>3.993890386343217</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1906,10 +1906,10 @@
         <v>40.31428571428575</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>35.97600179694521</v>
+        <v>35.97600179694522</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>4.338283917340533</v>
+        <v>4.338283917340526</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1920,10 +1920,10 @@
         <v>0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>40.51952380952383</v>
+        <v>40.51952380952384</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>35.88779874213838</v>
+        <v>35.88779874213839</v>
       </c>
       <c r="D86" s="2" t="n">
         <v>4.631725067385453</v>
@@ -1940,10 +1940,10 @@
         <v>40.66571428571432</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>35.79959568733155</v>
+        <v>35.79959568733156</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>4.866118598382762</v>
+        <v>4.866118598382755</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1957,10 +1957,10 @@
         <v>40.74571428571431</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>35.71139263252472</v>
+        <v>35.71139263252473</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>5.034321653189593</v>
+        <v>5.034321653189579</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1974,10 +1974,10 @@
         <v>40.75380952380955</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>35.62318957771789</v>
+        <v>35.6231895777179</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>5.130619946091656</v>
+        <v>5.130619946091649</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1991,10 +1991,10 @@
         <v>40.6914285714286</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>35.53498652291107</v>
+        <v>35.53498652291108</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>5.156442048517533</v>
+        <v>5.156442048517519</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2008,10 +2008,10 @@
         <v>40.55523809523812</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>35.44678346810424</v>
+        <v>35.44678346810425</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>5.108454627133888</v>
+        <v>5.108454627133874</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2025,10 +2025,10 @@
         <v>40.35238095238098</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>35.35858041329741</v>
+        <v>35.35858041329742</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>4.993800539083573</v>
+        <v>4.993800539083566</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2042,10 +2042,10 @@
         <v>40.08809523809526</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>35.27037735849058</v>
+        <v>35.27037735849059</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>4.817717879604686</v>
+        <v>4.817717879604672</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2059,10 +2059,10 @@
         <v>39.76952380952383</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>35.18217430368375</v>
+        <v>35.18217430368377</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>4.587349505840081</v>
+        <v>4.587349505840066</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2079,7 +2079,7 @@
         <v>35.09397124887693</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>4.319838274932621</v>
+        <v>4.319838274932614</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2093,10 +2093,10 @@
         <v>39.03238095238098</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>35.0057681940701</v>
+        <v>35.00576819407011</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>4.026612758310876</v>
+        <v>4.026612758310868</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2113,7 +2113,7 @@
         <v>34.91756513926327</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>3.723863432165324</v>
+        <v>3.723863432165317</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2124,10 +2124,10 @@
         <v>0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>38.25190476190479</v>
+        <v>38.2519047619048</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>34.82936208445644</v>
+        <v>34.82936208445645</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>3.422542677448348</v>
@@ -2144,10 +2144,10 @@
         <v>37.86857142857146</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>34.74115902964961</v>
+        <v>34.74115902964962</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>3.127412398921848</v>
+        <v>3.127412398921834</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2161,10 +2161,10 @@
         <v>37.4961904761905</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>34.65295597484278</v>
+        <v>34.65295597484279</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>2.843234501347716</v>
+        <v>2.843234501347709</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2181,7 +2181,7 @@
         <v>34.56475292003596</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>2.576675651392634</v>
+        <v>2.576675651392627</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2195,10 +2195,10 @@
         <v>36.80238095238097</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>34.47654986522912</v>
+        <v>34.47654986522913</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>2.325831087151847</v>
+        <v>2.32583108715184</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
@@ -2212,10 +2212,10 @@
         <v>36.48380952380955</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>34.3883468104223</v>
+        <v>34.38834681042231</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>2.095462713387249</v>
+        <v>2.095462713387242</v>
       </c>
       <c r="E103" s="2" t="n"/>
       <c r="F103" s="2" t="n"/>
@@ -2229,10 +2229,10 @@
         <v>36.18285714285717</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>34.30014375561547</v>
+        <v>34.30014375561548</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>1.882713387241701</v>
+        <v>1.882713387241687</v>
       </c>
       <c r="E104" s="2" t="n"/>
       <c r="F104" s="2" t="n"/>
@@ -2246,10 +2246,10 @@
         <v>35.9014285714286</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>34.21194070080864</v>
+        <v>34.21194070080865</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>1.689487870619956</v>
+        <v>1.689487870619942</v>
       </c>
       <c r="E105" s="2" t="n"/>
       <c r="F105" s="2" t="n"/>
@@ -2263,10 +2263,10 @@
         <v>35.63761904761907</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>34.12373764600181</v>
+        <v>34.12373764600182</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>1.513881401617255</v>
+        <v>1.513881401617247</v>
       </c>
       <c r="E106" s="2" t="n"/>
       <c r="F106" s="2" t="n"/>
@@ -2280,10 +2280,10 @@
         <v>35.38476190476193</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>34.03553459119499</v>
+        <v>34.035534591195</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>1.349227313566942</v>
+        <v>1.349227313566935</v>
       </c>
       <c r="E107" s="2" t="n"/>
       <c r="F107" s="2" t="n"/>
@@ -2300,7 +2300,7 @@
         <v>33.94733153638816</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>1.197906558849965</v>
+        <v>1.197906558849958</v>
       </c>
       <c r="E108" s="2" t="n"/>
       <c r="F108" s="2" t="n"/>
@@ -2314,10 +2314,10 @@
         <v>34.91428571428574</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>33.85912848158132</v>
+        <v>33.85912848158134</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>1.055157232704417</v>
+        <v>1.055157232704403</v>
       </c>
       <c r="E109" s="2" t="n"/>
       <c r="F109" s="2" t="n"/>
@@ -2331,10 +2331,10 @@
         <v>34.6914285714286</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>33.7709254267745</v>
+        <v>33.77092542677451</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>0.9205031446541057</v>
+        <v>0.9205031446540914</v>
       </c>
       <c r="E110" s="2" t="n"/>
       <c r="F110" s="2" t="n"/>
@@ -2345,13 +2345,13 @@
         <v>0.44</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>34.47952380952383</v>
+        <v>34.47952380952384</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>33.68272237196767</v>
+        <v>33.68272237196769</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>0.7968014375561623</v>
+        <v>0.7968014375561552</v>
       </c>
       <c r="E111" s="2" t="n"/>
       <c r="F111" s="2" t="n"/>
@@ -2368,7 +2368,7 @@
         <v>33.59451931716085</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>0.682623539982032</v>
+        <v>0.6826235399820249</v>
       </c>
       <c r="E112" s="2" t="n"/>
       <c r="F112" s="2" t="n"/>
@@ -2379,13 +2379,13 @@
         <v>0.448</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>34.0804761904762</v>
+        <v>34.08047619047621</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>33.50631626235401</v>
+        <v>33.50631626235403</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>0.5741599281221923</v>
+        <v>0.5741599281221852</v>
       </c>
       <c r="E113" s="2" t="n"/>
       <c r="F113" s="2" t="n"/>
@@ -2402,7 +2402,7 @@
         <v>33.41811320754719</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>0.4728391734052124</v>
+        <v>0.4728391734052053</v>
       </c>
       <c r="E114" s="2" t="n"/>
       <c r="F114" s="2" t="n"/>
@@ -2416,10 +2416,10 @@
         <v>33.71000000000003</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>33.32991015274035</v>
+        <v>33.32991015274037</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>0.3800898472596757</v>
+        <v>0.3800898472596614</v>
       </c>
       <c r="E115" s="2" t="n"/>
       <c r="F115" s="2" t="n"/>
@@ -2433,10 +2433,10 @@
         <v>33.5409523809524</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>33.24170709793353</v>
+        <v>33.24170709793354</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>0.2992452830188768</v>
+        <v>0.2992452830188626</v>
       </c>
       <c r="E116" s="2" t="n"/>
       <c r="F116" s="2" t="n"/>
@@ -2450,10 +2450,10 @@
         <v>33.37952380952383</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>33.1535040431267</v>
+        <v>33.15350404312671</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>0.2260197663971297</v>
+        <v>0.2260197663971226</v>
       </c>
       <c r="E117" s="2" t="n"/>
       <c r="F117" s="2" t="n"/>
@@ -2467,10 +2467,10 @@
         <v>33.22666666666669</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>33.06530098831987</v>
+        <v>33.06530098831988</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>0.1613656783468187</v>
+        <v>0.1613656783468045</v>
       </c>
       <c r="E118" s="2" t="n"/>
       <c r="F118" s="2" t="n"/>
@@ -2484,10 +2484,10 @@
         <v>33.08333333333336</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>32.97709793351304</v>
+        <v>32.97709793351305</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>0.1062353998203136</v>
+        <v>0.1062353998203065</v>
       </c>
       <c r="E119" s="2" t="n"/>
       <c r="F119" s="2" t="n"/>
@@ -2501,10 +2501,10 @@
         <v>32.95047619047621</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>32.88889487870621</v>
+        <v>32.88889487870622</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>0.06158131176999859</v>
+        <v>0.06158131176998438</v>
       </c>
       <c r="E120" s="2" t="n"/>
       <c r="F120" s="2" t="n"/>
@@ -2518,10 +2518,10 @@
         <v>32.82809523809527</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>32.80069182389938</v>
+        <v>32.8006918238994</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>0.02740341419588077</v>
+        <v>0.02740341419586656</v>
       </c>
       <c r="E121" s="2" t="n"/>
       <c r="F121" s="2" t="n"/>
@@ -2535,10 +2535,10 @@
         <v>32.72047619047622</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>32.71248876909256</v>
+        <v>32.71248876909257</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>0.007987421383660376</v>
+        <v>0.007987421383646165</v>
       </c>
       <c r="E122" s="2" t="n"/>
       <c r="F122" s="2" t="n"/>
@@ -2549,10 +2549,10 @@
         <v>0.488</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>32.62428571428573</v>
+        <v>32.62428571428574</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>32.62428571428573</v>
+        <v>32.62428571428574</v>
       </c>
       <c r="D123" s="2" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0.492</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>32.53833333333337</v>
+        <v>32.53833333333336</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>32.53833333333337</v>
+        <v>32.53833333333336</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>0</v>
@@ -2583,10 +2583,10 @@
         <v>0.496</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>32.45833333333337</v>
+        <v>32.45833333333338</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>32.45833333333337</v>
+        <v>32.45833333333338</v>
       </c>
       <c r="D125" s="2" t="n">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>0.5</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>32.38095238095243</v>
+        <v>32.38095238095245</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>32.38095238095243</v>
+        <v>32.38095238095245</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0.068</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.3031428571428449</v>
+        <v>0.3031428571428521</v>
       </c>
     </row>
     <row r="3">
@@ -2660,7 +2660,7 @@
         <v>0.188</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.1096240601503808</v>
+        <v>0.1096240601503737</v>
       </c>
     </row>
     <row r="4">
@@ -2668,7 +2668,7 @@
         <v>0.356</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5.156442048517533</v>
+        <v>5.156442048517519</v>
       </c>
     </row>
   </sheetData>
